--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -44,6 +45,21 @@
   </si>
   <si>
     <t xml:space="preserve">Exhaustive Algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Divide by 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brute Force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seconds (ns)</t>
   </si>
 </sst>
 </file>
@@ -133,7 +149,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,8 +170,20 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -340,11 +368,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="72175754"/>
-        <c:axId val="92579314"/>
+        <c:axId val="17763470"/>
+        <c:axId val="27397417"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72175754"/>
+        <c:axId val="17763470"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +388,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -386,12 +414,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92579314"/>
+        <c:crossAx val="27397417"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92579314"/>
+        <c:axId val="27397417"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,7 +461,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72175754"/>
+        <c:crossAx val="17763470"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -472,9 +500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
+      <xdr:colOff>72000</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -482,8 +510,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10896120" y="1785600"/>
-        <a:ext cx="5765400" cy="2695320"/>
+        <a:off x="10898640" y="1785600"/>
+        <a:ext cx="5769720" cy="2694600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -503,11 +531,11 @@
   </sheetPr>
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.27"/>
@@ -955,4 +983,311 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:G20"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="11.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>555</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="8"/>
+      <c r="C5" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>3461</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>6201</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>5526</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>9213</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>11253</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>12785</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>19307</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>15214</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>20233</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>16221</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>23064</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>18535</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>27971</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>18663</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>36280</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>20018</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>21019</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>51761</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>30517</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>198853</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>43704</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>300</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>447269</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="6" t="n">
+        <v>400</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>54383</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>400</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>752602</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>70879</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>500</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>1144879</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="6" t="n">
+        <v>2500</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>263727</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>2500</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>2034638</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="6" t="n">
+        <v>597691</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-1175547</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:B14"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,18 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Sophmore I\CS 203\Assignment 2\2D-Closest-Pair\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C94B5A-A630-487E-BCDA-632725E1FA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="57480" yWindow="4050" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -21,90 +35,61 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
-    <t xml:space="preserve">#</t>
+    <t>#</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of Trials</t>
+    <t>Number of Trials</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of Points</t>
+    <t>Number of Points</t>
   </si>
   <si>
-    <t xml:space="preserve">Range of Points</t>
+    <t>Range of Points</t>
   </si>
   <si>
-    <t xml:space="preserve">0-1000</t>
+    <t>0-1000</t>
   </si>
   <si>
-    <t xml:space="preserve">Average</t>
+    <t>Average</t>
   </si>
   <si>
-    <t xml:space="preserve">Efficient Algo</t>
+    <t>Efficient Algo</t>
   </si>
   <si>
-    <t xml:space="preserve">Exhaustive Algo</t>
+    <t>Exhaustive Algo</t>
   </si>
   <si>
-    <t xml:space="preserve">Divide by 2</t>
+    <t>Divide by 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Brute Force</t>
+    <t>Brute Force</t>
   </si>
   <si>
-    <t xml:space="preserve">Trials</t>
+    <t>Trials</t>
   </si>
   <si>
-    <t xml:space="preserve">Points</t>
+    <t>Points</t>
   </si>
   <si>
-    <t xml:space="preserve">Seconds (ns)</t>
+    <t>Seconds (ns)</t>
+  </si>
+  <si>
+    <t>BlackCat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -116,7 +101,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -124,77 +109,41 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -253,15 +202,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -270,7 +237,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -278,7 +245,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -299,6 +266,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -306,9 +274,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:noFill/>
             </a:ln>
@@ -318,23 +283,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr wrap="square"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                  <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Calibri"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="r"/>
@@ -343,8 +316,9 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:separator>; </c:separator>
-            <c:showLeaderLines val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:showLeaderLines val="1"/>
@@ -353,11 +327,20 @@
           </c:dLbls>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$C$9,Sheet1!$C$16:$C$16,Sheet1!$C$19:$C$19,Sheet1!$C$22:$C$22,Sheet1!$C$24:$C$24</c:f>
+              <c:f>(Sheet1!$C$9:$C$9,Sheet1!$C$16:$C$16,Sheet1!$C$19:$C$19,Sheet1!$C$22:$C$22,Sheet1!$C$24:$C$24)</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
@@ -367,7 +350,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26F7-4856-89FC-DC6A68186AEC}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="17763470"/>
         <c:axId val="27397417"/>
       </c:scatterChart>
@@ -382,7 +378,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -395,7 +391,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -405,13 +401,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="27397417"/>
@@ -429,7 +426,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -442,7 +439,7 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -452,13 +449,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="17763470"/>
@@ -474,23 +472,29 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -504,14 +508,20 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10898640" y="1785600"/>
-        <a:ext cx="5769720" cy="2694600"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -524,88 +534,380 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="11.27"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="5" customWidth="1"/>
+    <col min="4" max="8" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="5">
         <v>20</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="6">
         <v>500000</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>5</v>
       </c>
       <c r="E7" s="4"/>
@@ -613,120 +915,120 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3" t="n">
-        <f aca="false">AVERAGE(D8:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="s">
+      <c r="C8" s="7">
+        <f>AVERAGE(D8:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <f aca="false">AVERAGE(D9:H9)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+      <c r="C9" s="7">
+        <f>AVERAGE(D9:H9)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="3">
         <v>50</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="3" t="n">
-        <f aca="false">AVERAGE(D11:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="7">
+        <f>AVERAGE(D11:H11)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="n">
-        <f aca="false">AVERAGE(D12:H12)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="C12" s="7">
+        <f>AVERAGE(D12:H12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4" t="n">
+      <c r="D13" s="4">
         <v>500</v>
       </c>
       <c r="E13" s="4"/>
@@ -734,60 +1036,60 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="3" t="n">
-        <f aca="false">AVERAGE(D14:H14)</f>
+      <c r="C14" s="7">
+        <f>AVERAGE(D14:H14)</f>
         <v>0.2</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3" t="n">
-        <f aca="false">AVERAGE(D15:H15)</f>
+      <c r="C15" s="7">
+        <f>AVERAGE(D15:H15)</f>
         <v>1.8</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="7">
         <v>5</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="7">
         <v>1</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="7">
         <v>1</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="4">
         <v>5000</v>
       </c>
       <c r="E16" s="4"/>
@@ -795,60 +1097,60 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="3" t="n">
-        <f aca="false">AVERAGE(D17:H17)</f>
+      <c r="C17" s="7">
+        <f>AVERAGE(D17:H17)</f>
         <v>4</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c r="D17" s="7">
         <v>5</v>
       </c>
-      <c r="E17" s="3" t="n">
+      <c r="E17" s="7">
         <v>8</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="7">
         <v>3</v>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="7">
         <v>3</v>
       </c>
-      <c r="H17" s="3" t="n">
+      <c r="H17" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="3" t="n">
-        <f aca="false">AVERAGE(D18:H18)</f>
+      <c r="C18" s="7">
+        <f>AVERAGE(D18:H18)</f>
         <v>118</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c r="D18" s="7">
         <v>135</v>
       </c>
-      <c r="E18" s="3" t="n">
+      <c r="E18" s="7">
         <v>119</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="7">
         <v>111</v>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="7">
         <v>112</v>
       </c>
-      <c r="H18" s="3" t="n">
+      <c r="H18" s="7">
         <v>113</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4" t="n">
+      <c r="D19" s="4">
         <v>50000</v>
       </c>
       <c r="E19" s="4"/>
@@ -856,60 +1158,60 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="n">
-        <f aca="false">AVERAGE(D20:H20)</f>
+      <c r="C20" s="7">
+        <f>AVERAGE(D20:H20)</f>
         <v>25</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c r="D20" s="7">
         <v>42</v>
       </c>
-      <c r="E20" s="3" t="n">
+      <c r="E20" s="7">
         <v>60</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="7">
         <v>10</v>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="7">
         <v>6</v>
       </c>
-      <c r="H20" s="3" t="n">
+      <c r="H20" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="3" t="n">
-        <f aca="false">AVERAGE(D21:H21)</f>
+      <c r="C21" s="7">
+        <f>AVERAGE(D21:H21)</f>
         <v>6062.8</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c r="D21" s="7">
         <v>9327</v>
       </c>
-      <c r="E21" s="3" t="n">
+      <c r="E21" s="7">
         <v>5632</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="7">
         <v>4285</v>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="7">
         <v>5518</v>
       </c>
-      <c r="H21" s="3" t="n">
+      <c r="H21" s="7">
         <v>5552</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="4" t="n">
+      <c r="D22" s="4">
         <v>500000</v>
       </c>
       <c r="E22" s="4"/>
@@ -917,362 +1219,365 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B23" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="3" t="n">
-        <f aca="false">AVERAGE(D23:H23)</f>
+      <c r="C23" s="7">
+        <f>AVERAGE(D23:H23)</f>
         <v>170.8</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c r="D23" s="7">
         <v>239</v>
       </c>
-      <c r="E23" s="3" t="n">
+      <c r="E23" s="7">
         <v>156</v>
       </c>
-      <c r="F23" s="3" t="n">
+      <c r="F23" s="7">
         <v>160</v>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="7">
         <v>150</v>
       </c>
-      <c r="H23" s="3" t="n">
+      <c r="H23" s="7">
         <v>149</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="3" t="n">
-        <f aca="false">AVERAGE(D24:H24)</f>
+      <c r="C24" s="7">
+        <f>AVERAGE(D24:H24)</f>
         <v>652980.6</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c r="D24" s="7">
         <v>554937</v>
       </c>
-      <c r="E24" s="3" t="n">
+      <c r="E24" s="7">
         <v>703685</v>
       </c>
-      <c r="F24" s="3" t="n">
+      <c r="F24" s="7">
         <v>697336</v>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="7">
         <v>655801</v>
       </c>
-      <c r="H24" s="3" t="n">
+      <c r="H24" s="7">
         <v>653144</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D22:H22"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D10:H10"/>
     <mergeCell ref="D13:H13"/>
     <mergeCell ref="D16:H16"/>
     <mergeCell ref="D19:H19"/>
-    <mergeCell ref="D22:H22"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="6" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="6" width="11.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="13"/>
+    <col min="3" max="3" width="9.08984375" style="8"/>
+    <col min="4" max="4" width="11.81640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="8"/>
+    <col min="7" max="7" width="13" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="7" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="8" t="n">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="1">
         <v>1000</v>
       </c>
-      <c r="C4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6" t="n">
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
         <v>555</v>
       </c>
-      <c r="F4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="n">
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
         <v>365</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="8"/>
-      <c r="C5" s="6" t="n">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="1"/>
+      <c r="C5" s="8">
         <v>10</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="8">
         <v>3461</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="8">
         <v>10</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="8">
         <v>1685</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="n">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="1"/>
+      <c r="C6" s="8">
         <v>20</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="8">
         <v>6201</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="8">
         <v>20</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="8">
         <v>5526</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="8"/>
-      <c r="C7" s="6" t="n">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="1"/>
+      <c r="C7" s="8">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="8">
         <v>9213</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="8">
         <v>30</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="8">
         <v>11253</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="8"/>
-      <c r="C8" s="6" t="n">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" s="1"/>
+      <c r="C8" s="8">
         <v>40</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="8">
         <v>12785</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="8">
         <v>40</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="8">
         <v>19307</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="8"/>
-      <c r="C9" s="6" t="n">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="1"/>
+      <c r="C9" s="8">
         <v>50</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="8">
         <v>15214</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="8">
         <v>50</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="8">
         <v>20233</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="8"/>
-      <c r="C10" s="6" t="n">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="1"/>
+      <c r="C10" s="8">
         <v>60</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="8">
         <v>16221</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="8">
         <v>60</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="8">
         <v>23064</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="8"/>
-      <c r="C11" s="6" t="n">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
+      <c r="C11" s="8">
         <v>70</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="8">
         <v>18535</v>
       </c>
-      <c r="F11" s="6" t="n">
+      <c r="F11" s="8">
         <v>70</v>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="8">
         <v>27971</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="8"/>
-      <c r="C12" s="6" t="n">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
+      <c r="C12" s="8">
         <v>80</v>
       </c>
-      <c r="D12" s="6" t="n">
+      <c r="D12" s="8">
         <v>18663</v>
       </c>
-      <c r="F12" s="6" t="n">
+      <c r="F12" s="8">
         <v>80</v>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="8">
         <v>36280</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="8"/>
-      <c r="C13" s="6" t="n">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
+      <c r="C13" s="8">
         <v>90</v>
       </c>
-      <c r="D13" s="6" t="n">
+      <c r="D13" s="8">
         <v>20018</v>
       </c>
-      <c r="F13" s="6" t="n">
+      <c r="F13" s="8">
         <v>90</v>
       </c>
-      <c r="G13" s="6" t="n">
+      <c r="G13" s="8">
         <v>44893</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8"/>
-      <c r="C14" s="6" t="n">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
+      <c r="C14" s="8">
         <v>100</v>
       </c>
-      <c r="D14" s="6" t="n">
+      <c r="D14" s="8">
         <v>21019</v>
       </c>
-      <c r="F14" s="6" t="n">
+      <c r="F14" s="8">
         <v>100</v>
       </c>
-      <c r="G14" s="6" t="n">
+      <c r="G14" s="8">
         <v>51761</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="6" t="n">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C15" s="8">
         <v>200</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="8">
         <v>30517</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="8">
         <v>200</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="8">
         <v>198853</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="6" t="n">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C16" s="8">
         <v>300</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="8">
         <v>43704</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="8">
         <v>300</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="8">
         <v>447269</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="6" t="n">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C17" s="8">
         <v>400</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="8">
         <v>54383</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="8">
         <v>400</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="8">
         <v>752602</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="6" t="n">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C18" s="8">
         <v>500</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="8">
         <v>70879</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="8">
         <v>500</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="8">
         <v>1144879</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="6" t="n">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C19" s="8">
         <v>2500</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="8">
         <v>263727</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="8">
         <v>2500</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="8">
         <v>2034638</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="6" t="n">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
+      <c r="C20" s="8">
+        <v>5000</v>
+      </c>
+      <c r="D20" s="8">
         <v>597691</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="F20" s="8">
+        <v>5000</v>
+      </c>
+      <c r="G20" s="8">
         <v>-1175547</v>
       </c>
     </row>
@@ -1282,10 +1587,9 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="B4:B14"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>

--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Drive\Sophmore I\CS 203\Assignment 2\2D-Closest-Pair\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C94B5A-A630-487E-BCDA-632725E1FA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD0D597-9DD1-48C8-9E09-0F3CD8065EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="4050" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,13 +83,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFE7E9EB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -112,20 +118,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -138,6 +132,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,6 +504,1910 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$4:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$G$4:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1685</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11253</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19307</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27971</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51761</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>198853</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>447269</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>752602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1144879</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4575176</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10141913</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17984385</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>27822034</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9345-499D-8E1B-A20BF6690179}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="495595776"/>
+        <c:axId val="495594528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="495595776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495594528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="495594528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="495595776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$4:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$4:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6201</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10919</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19491</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21548</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24803</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36291</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51426</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62769</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80270</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>136637</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>157289</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>213896</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>263727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-662C-476D-AE4B-7A635360B4C9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="546994720"/>
+        <c:axId val="546995552"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="546994720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546995552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="546995552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="546994720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -526,6 +2441,83 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>144462</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E27E60-2CFA-4BDE-BA31-19DAE2ABFD45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>112712</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>211137</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>36512</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E65B8A-642B-48BD-8D08-4063DEF96161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -840,126 +2832,126 @@
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="16.54296875" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="1" customWidth="1"/>
     <col min="4" max="8" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="1">
         <v>20</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="2">
         <v>500000</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="B6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>5</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <f>AVERAGE(D8:H8)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="3">
         <v>0</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <f>AVERAGE(D9:H9)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -967,303 +2959,303 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>50</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <f>AVERAGE(D11:H11)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="3">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <v>0</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <f>AVERAGE(D12:H12)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="3">
         <v>0</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <v>500</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <f>AVERAGE(D14:H14)</f>
         <v>0.2</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <f>AVERAGE(D15:H15)</f>
         <v>1.8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>5000</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <f>AVERAGE(D17:H17)</f>
         <v>4</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="3">
         <v>5</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="3">
         <v>8</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="3">
         <v>3</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="3">
         <f>AVERAGE(D18:H18)</f>
         <v>118</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="3">
         <v>135</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="3">
         <v>119</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="3">
         <v>111</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="3">
         <v>112</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="3">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>50000</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="3">
         <f>AVERAGE(D20:H20)</f>
         <v>25</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="3">
         <v>42</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="3">
         <v>60</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="3">
         <v>10</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="3">
         <v>6</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="3">
         <f>AVERAGE(D21:H21)</f>
         <v>6062.8</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="3">
         <v>9327</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="3">
         <v>5632</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="3">
         <v>4285</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="3">
         <v>5518</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="3">
         <v>5552</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>500000</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="3">
         <f>AVERAGE(D23:H23)</f>
         <v>170.8</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="3">
         <v>239</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="3">
         <v>156</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="3">
         <v>160</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="3">
         <v>150</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="3">
         <v>149</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="3">
         <f>AVERAGE(D24:H24)</f>
         <v>652980.6</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="3">
         <v>554937</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="3">
         <v>703685</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="3">
         <v>697336</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="3">
         <v>655801</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="3">
         <v>653144</v>
       </c>
     </row>
@@ -1284,18 +3276,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:G20"/>
+  <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.08984375" style="8"/>
-    <col min="4" max="4" width="11.81640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="8"/>
-    <col min="7" max="7" width="13" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="4"/>
+    <col min="4" max="4" width="11.81640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="4"/>
+    <col min="7" max="7" width="13" style="10" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.35">
@@ -1304,281 +3297,341 @@
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="1">
+      <c r="B4" s="8">
         <v>1000</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="10">
         <v>555</v>
       </c>
-      <c r="F4" s="8">
+      <c r="E4" s="11"/>
+      <c r="F4" s="10">
         <v>0</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="10">
         <v>365</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="C5" s="8">
+      <c r="B5" s="8"/>
+      <c r="C5" s="10">
         <v>10</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="10">
         <v>3461</v>
       </c>
-      <c r="F5" s="8">
+      <c r="E5" s="11"/>
+      <c r="F5" s="10">
         <v>10</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="10">
         <v>1685</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="1"/>
-      <c r="C6" s="8">
+      <c r="B6" s="8"/>
+      <c r="C6" s="10">
         <v>20</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="10">
         <v>6201</v>
       </c>
-      <c r="F6" s="8">
+      <c r="E6" s="11"/>
+      <c r="F6" s="10">
         <v>20</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="10">
         <v>5526</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="1"/>
-      <c r="C7" s="8">
+      <c r="B7" s="8"/>
+      <c r="C7" s="10">
         <v>30</v>
       </c>
-      <c r="D7" s="8">
-        <v>9213</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="D7" s="10">
+        <v>10919</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="10">
         <v>30</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="10">
         <v>11253</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="1"/>
-      <c r="C8" s="8">
+      <c r="B8" s="8"/>
+      <c r="C8" s="10">
         <v>40</v>
       </c>
-      <c r="D8" s="8">
-        <v>12785</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="D8" s="10">
+        <v>13671</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="10">
         <v>40</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="10">
         <v>19307</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="1"/>
-      <c r="C9" s="8">
+      <c r="B9" s="8"/>
+      <c r="C9" s="10">
         <v>50</v>
       </c>
-      <c r="D9" s="8">
-        <v>15214</v>
-      </c>
-      <c r="F9" s="8">
+      <c r="D9" s="10">
+        <v>14083</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="10">
         <v>50</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="10">
         <v>20233</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="8">
+      <c r="B10" s="8"/>
+      <c r="C10" s="10">
         <v>60</v>
       </c>
-      <c r="D10" s="8">
-        <v>16221</v>
-      </c>
-      <c r="F10" s="8">
+      <c r="D10" s="10">
+        <v>16888</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="10">
         <v>60</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="10">
         <v>23064</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="8">
+      <c r="B11" s="8"/>
+      <c r="C11" s="10">
         <v>70</v>
       </c>
-      <c r="D11" s="8">
-        <v>18535</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="D11" s="10">
+        <v>19382</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="10">
         <v>70</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="10">
         <v>27971</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="1"/>
-      <c r="C12" s="8">
+      <c r="B12" s="8"/>
+      <c r="C12" s="10">
         <v>80</v>
       </c>
-      <c r="D12" s="8">
-        <v>18663</v>
-      </c>
-      <c r="F12" s="8">
+      <c r="D12" s="10">
+        <v>19491</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10">
         <v>80</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="10">
         <v>36280</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="1"/>
-      <c r="C13" s="8">
+      <c r="B13" s="8"/>
+      <c r="C13" s="10">
         <v>90</v>
       </c>
-      <c r="D13" s="8">
-        <v>20018</v>
-      </c>
-      <c r="F13" s="8">
+      <c r="D13" s="10">
+        <v>21548</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="10">
         <v>90</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="10">
         <v>44893</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="1"/>
-      <c r="C14" s="8">
+      <c r="B14" s="8"/>
+      <c r="C14" s="10">
         <v>100</v>
       </c>
-      <c r="D14" s="8">
-        <v>21019</v>
-      </c>
-      <c r="F14" s="8">
+      <c r="D14" s="10">
+        <v>24803</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10">
         <v>100</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="10">
         <v>51761</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C15" s="8">
+      <c r="C15" s="10">
         <v>200</v>
       </c>
-      <c r="D15" s="8">
-        <v>30517</v>
-      </c>
-      <c r="F15" s="8">
+      <c r="D15" s="10">
+        <v>36291</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10">
         <v>200</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="10">
         <v>198853</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="C16" s="8">
+      <c r="C16" s="10">
         <v>300</v>
       </c>
-      <c r="D16" s="8">
-        <v>43704</v>
-      </c>
-      <c r="F16" s="8">
+      <c r="D16" s="10">
+        <v>51426</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="10">
         <v>300</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="10">
         <v>447269</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C17" s="8">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C17" s="10">
         <v>400</v>
       </c>
-      <c r="D17" s="8">
-        <v>54383</v>
-      </c>
-      <c r="F17" s="8">
+      <c r="D17" s="10">
+        <v>62769</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="10">
         <v>400</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="10">
         <v>752602</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C18" s="8">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C18" s="10">
         <v>500</v>
       </c>
-      <c r="D18" s="8">
-        <v>70879</v>
-      </c>
-      <c r="F18" s="8">
+      <c r="D18" s="10">
+        <v>80270</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10">
         <v>500</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="10">
         <v>1144879</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C19" s="8">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="4">
+        <v>136637</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="10">
+        <v>4575176</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C20" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D20" s="4">
+        <v>157289</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="4">
+        <v>1500</v>
+      </c>
+      <c r="G20" s="10">
+        <v>10141913</v>
+      </c>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C21" s="4">
+        <v>2000</v>
+      </c>
+      <c r="D21" s="4">
+        <v>213896</v>
+      </c>
+      <c r="F21" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G21" s="10">
+        <v>17984385</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C22" s="10">
         <v>2500</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D22" s="10">
         <v>263727</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F22" s="10">
         <v>2500</v>
       </c>
-      <c r="G19" s="8">
-        <v>2034638</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="8">
+      <c r="G22" s="10">
+        <v>27822034</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.35">
+      <c r="C23" s="10">
         <v>5000</v>
       </c>
-      <c r="D20" s="8">
-        <v>597691</v>
-      </c>
-      <c r="F20" s="8">
+      <c r="D23" s="10">
+        <v>576344</v>
+      </c>
+      <c r="F23" s="10">
         <v>5000</v>
       </c>
-      <c r="G20" s="8">
-        <v>-1175547</v>
+      <c r="G23" s="10">
+        <v>111922245</v>
       </c>
     </row>
   </sheetData>
@@ -1588,10 +3641,11 @@
     <mergeCell ref="B4:B14"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>